--- a/Heineken.xlsx
+++ b/Heineken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40946ede84cb16e4/Documentos/C DADOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40946ede84cb16e4/Documentos/C DADOS/cdados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_4A969315ACA319EBEEB613328B5AF545E12C4A0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F712599D-C17E-4484-AE01-D3D3FF49D801}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_4A969315ACA319EBEEB613328B5AF545E12C4A0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE29FFD-B323-431C-8519-12AB0E66B637}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1644,7 +1644,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1668,15 +1668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1693,18 +1684,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2045,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2051,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>502</v>
       </c>
     </row>
@@ -2067,23 +2059,23 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
+      <c r="B2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2091,63 +2083,63 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
+      <c r="B5" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
+      <c r="B6" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
+      <c r="B7" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
+      <c r="B8" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
+      <c r="B9" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
+      <c r="B10" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
+      <c r="B11" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2155,7 +2147,7 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2163,63 +2155,63 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
+      <c r="B14" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
+      <c r="B15" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
+      <c r="B16" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
+      <c r="B17" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
+      <c r="B18" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
-        <v>1</v>
+      <c r="B19" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
+      <c r="B20" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2227,15 +2219,15 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
-        <v>1</v>
+      <c r="B22" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2243,111 +2235,111 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
-        <v>1</v>
+      <c r="B24" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
-        <v>1</v>
+      <c r="B25" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
-        <v>1</v>
+      <c r="B26" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
-        <v>1</v>
+      <c r="B27" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
-        <v>1</v>
+      <c r="B28" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
-        <v>1</v>
+      <c r="B29" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
-        <v>1</v>
+      <c r="B30" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
-        <v>1</v>
+      <c r="B31" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
+      <c r="B32" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
-        <v>1</v>
+      <c r="B33" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
-        <v>0</v>
+      <c r="B34" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
-        <v>0</v>
+      <c r="B35" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
-        <v>1</v>
+      <c r="B36" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2355,79 +2347,79 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
+      <c r="B38" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
-        <v>1</v>
+      <c r="B39" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
+      <c r="B40" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
-        <v>1</v>
+      <c r="B41" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
-        <v>1</v>
+      <c r="B42" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
-        <v>1</v>
+      <c r="B43" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="7">
-        <v>1</v>
+      <c r="B44" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
-        <v>1</v>
+      <c r="B45" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
-        <v>1</v>
+      <c r="B46" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2435,31 +2427,31 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
-        <v>0</v>
+      <c r="B48" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
-        <v>1</v>
+      <c r="B49" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
-        <v>1</v>
+      <c r="B50" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2467,7 +2459,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2475,71 +2467,71 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
-        <v>1</v>
+      <c r="B53" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
-        <v>1</v>
+      <c r="B54" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
-        <v>1</v>
+      <c r="B55" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
-        <v>1</v>
+      <c r="B56" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
-        <v>1</v>
+      <c r="B57" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
-        <v>1</v>
+      <c r="B58" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
-        <v>1</v>
+      <c r="B59" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
-        <v>1</v>
+      <c r="B60" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2547,15 +2539,15 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
-        <v>1</v>
+      <c r="B62" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2563,135 +2555,135 @@
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
-        <v>1</v>
+      <c r="B64" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
-        <v>1</v>
+      <c r="B65" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
-        <v>1</v>
+      <c r="B66" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
-        <v>1</v>
+      <c r="B67" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="7">
-        <v>1</v>
+      <c r="B68" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
-        <v>0</v>
+      <c r="B69" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
-        <v>1</v>
+      <c r="B70" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
-        <v>1</v>
+      <c r="B71" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
-        <v>1</v>
+      <c r="B72" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
-        <v>1</v>
+      <c r="B73" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
-        <v>1</v>
+      <c r="B74" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
-        <v>1</v>
+      <c r="B75" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
-        <v>1</v>
+      <c r="B76" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
-        <v>1</v>
+      <c r="B77" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
-        <v>1</v>
+      <c r="B78" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
-        <v>1</v>
+      <c r="B79" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2699,7 +2691,7 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2707,7 +2699,7 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2715,7 +2707,7 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2723,7 +2715,7 @@
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2731,7 +2723,7 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2739,23 +2731,23 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
-        <v>1</v>
+      <c r="B86" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="7">
-        <v>1</v>
+      <c r="B87" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2763,15 +2755,15 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="7">
-        <v>1</v>
+      <c r="B89" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2779,39 +2771,39 @@
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="7">
-        <v>1</v>
+      <c r="B91" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="7">
-        <v>1</v>
+      <c r="B92" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="7">
-        <v>1</v>
+      <c r="B93" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="7">
-        <v>1</v>
+      <c r="B94" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2819,7 +2811,7 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2827,7 +2819,7 @@
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2835,7 +2827,7 @@
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2835,7 @@
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2851,15 +2843,15 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="7">
-        <v>1</v>
+      <c r="B100" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2867,15 +2859,15 @@
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
-        <v>1</v>
+      <c r="B102" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2883,15 +2875,15 @@
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="7">
-        <v>1</v>
+      <c r="B104" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2899,215 +2891,215 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="7">
-        <v>1</v>
+      <c r="B106" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
-        <v>1</v>
+      <c r="B107" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="7">
-        <v>1</v>
+      <c r="B108" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="7">
-        <v>1</v>
+      <c r="B109" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="7">
-        <v>1</v>
+      <c r="B110" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="7">
-        <v>1</v>
+      <c r="B111" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="7">
-        <v>1</v>
+      <c r="B112" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
-        <v>1</v>
+      <c r="B113" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
-        <v>1</v>
+      <c r="B114" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
-        <v>1</v>
+      <c r="B115" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
-        <v>1</v>
+      <c r="B116" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
-        <v>1</v>
+      <c r="B117" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
-        <v>1</v>
+      <c r="B118" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="7">
-        <v>1</v>
+      <c r="B119" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="7">
-        <v>1</v>
+      <c r="B120" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="7">
-        <v>1</v>
+      <c r="B121" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="7">
-        <v>1</v>
+      <c r="B122" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="7">
-        <v>1</v>
+      <c r="B123" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="7">
-        <v>1</v>
+      <c r="B124" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="7">
-        <v>1</v>
+      <c r="B125" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="7">
-        <v>1</v>
+      <c r="B126" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="7">
-        <v>1</v>
+      <c r="B127" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="7">
-        <v>1</v>
+      <c r="B128" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="7">
-        <v>0</v>
+      <c r="B129" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="7">
-        <v>0</v>
+      <c r="B130" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="7">
-        <v>1</v>
+      <c r="B131" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3115,63 +3107,63 @@
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="7">
-        <v>1</v>
+      <c r="B133" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="7">
-        <v>1</v>
+      <c r="B134" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="7">
-        <v>1</v>
+      <c r="B135" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="7">
-        <v>1</v>
+      <c r="B136" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="7">
-        <v>1</v>
+      <c r="B137" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="7">
-        <v>1</v>
+      <c r="B138" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="7">
-        <v>1</v>
+      <c r="B139" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3179,23 +3171,23 @@
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="7">
-        <v>1</v>
+      <c r="B141" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="7">
-        <v>1</v>
+      <c r="B142" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3203,71 +3195,71 @@
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="7">
-        <v>1</v>
+      <c r="B144" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="7">
-        <v>1</v>
+      <c r="B145" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="7">
-        <v>1</v>
+      <c r="B146" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="7">
-        <v>1</v>
+      <c r="B147" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="7">
-        <v>1</v>
+      <c r="B148" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="7">
-        <v>1</v>
+      <c r="B149" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="7">
-        <v>1</v>
+      <c r="B150" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="7">
-        <v>1</v>
+      <c r="B151" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3275,7 +3267,7 @@
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3283,55 +3275,55 @@
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
-        <v>1</v>
+      <c r="B154" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="7">
-        <v>1</v>
+      <c r="B155" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="7">
-        <v>1</v>
+      <c r="B156" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="7">
-        <v>1</v>
+      <c r="B157" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="7">
-        <v>1</v>
+      <c r="B158" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="7">
-        <v>1</v>
+      <c r="B159" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3339,87 +3331,87 @@
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="7">
-        <v>1</v>
+      <c r="B161" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="7">
-        <v>1</v>
+      <c r="B162" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="7">
-        <v>1</v>
+      <c r="B163" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
-        <v>1</v>
+      <c r="B164" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="7">
-        <v>1</v>
+      <c r="B165" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="8">
-        <v>0</v>
+      <c r="B166" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="8">
-        <v>1</v>
+      <c r="B167" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="8">
-        <v>0</v>
+      <c r="B168" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="8">
-        <v>0</v>
+      <c r="B169" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="8">
-        <v>0</v>
+      <c r="B170" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3427,31 +3419,31 @@
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="8">
-        <v>1</v>
+      <c r="B172" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="8">
-        <v>0</v>
+      <c r="B173" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="8">
-        <v>0</v>
+      <c r="B174" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="8">
+      <c r="B175" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3459,7 +3451,7 @@
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="8">
+      <c r="B176" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3467,7 +3459,7 @@
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3475,55 +3467,55 @@
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="8">
-        <v>0</v>
+      <c r="B178" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="8">
-        <v>0</v>
+      <c r="B179" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="8">
-        <v>0</v>
+      <c r="B180" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="8">
-        <v>0</v>
+      <c r="B181" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="8">
-        <v>0</v>
+      <c r="B182" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="8">
-        <v>0</v>
+      <c r="B183" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3531,15 +3523,15 @@
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="8">
-        <v>0</v>
+      <c r="B185" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3547,23 +3539,23 @@
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="8">
-        <v>0</v>
+      <c r="B187" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="8">
-        <v>1</v>
+      <c r="B188" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3571,47 +3563,47 @@
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="8">
-        <v>0</v>
+      <c r="B190" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="8">
-        <v>1</v>
+      <c r="B191" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="8">
-        <v>0</v>
+      <c r="B192" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="8">
-        <v>0</v>
+      <c r="B193" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="8">
-        <v>1</v>
+      <c r="B194" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3619,7 +3611,7 @@
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3627,31 +3619,31 @@
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="8">
-        <v>1</v>
+      <c r="B197" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="8">
-        <v>0</v>
+      <c r="B198" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="8">
-        <v>1</v>
+      <c r="B199" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="8">
+      <c r="B200" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3659,23 +3651,23 @@
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="8">
-        <v>0</v>
+      <c r="B201" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="8">
-        <v>0</v>
+      <c r="B202" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3683,7 +3675,7 @@
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="8">
+      <c r="B204" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3691,15 +3683,15 @@
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="8">
-        <v>0</v>
+      <c r="B205" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3707,15 +3699,15 @@
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="8">
-        <v>1</v>
+      <c r="B207" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3723,31 +3715,31 @@
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="8">
-        <v>1</v>
+      <c r="B209" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="8">
-        <v>1</v>
+      <c r="B210" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="8">
-        <v>1</v>
+      <c r="B211" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3755,7 +3747,7 @@
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3763,87 +3755,87 @@
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="8">
-        <v>0</v>
+      <c r="B214" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="8">
-        <v>1</v>
+      <c r="B215" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="8">
-        <v>0</v>
+      <c r="B216" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="8">
-        <v>1</v>
+      <c r="B217" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="8">
-        <v>0</v>
+      <c r="B218" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="8">
-        <v>1</v>
+      <c r="B219" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="8">
-        <v>0</v>
+      <c r="B220" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="8">
-        <v>0</v>
+      <c r="B221" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="8">
-        <v>0</v>
+      <c r="B222" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="8">
-        <v>0</v>
+      <c r="B223" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="8">
+      <c r="B224" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3851,39 +3843,39 @@
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="8">
-        <v>1</v>
+      <c r="B225" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="8">
-        <v>0</v>
+      <c r="B226" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="8">
-        <v>0</v>
+      <c r="B227" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="8">
-        <v>0</v>
+      <c r="B228" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B229" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3891,7 +3883,7 @@
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B230" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3899,7 +3891,7 @@
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B231" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3907,55 +3899,55 @@
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="8">
-        <v>0</v>
+      <c r="B232" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="8">
-        <v>1</v>
+      <c r="B233" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="8">
-        <v>0</v>
+      <c r="B234" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="8">
-        <v>0</v>
+      <c r="B235" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="8">
-        <v>1</v>
+      <c r="B236" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="8">
-        <v>0</v>
+      <c r="B237" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="8">
+      <c r="B238" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3963,31 +3955,31 @@
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="8">
-        <v>0</v>
+      <c r="B239" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="8">
-        <v>0</v>
+      <c r="B240" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="8">
-        <v>1</v>
+      <c r="B241" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="8">
+      <c r="B242" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3995,15 +3987,15 @@
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="8">
-        <v>0</v>
+      <c r="B243" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B244" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4011,23 +4003,23 @@
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="8">
-        <v>0</v>
+      <c r="B245" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="8">
-        <v>0</v>
+      <c r="B246" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="8">
+      <c r="B247" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4035,143 +4027,143 @@
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="8">
-        <v>1</v>
+      <c r="B248" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="8">
-        <v>1</v>
+      <c r="B249" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="8">
-        <v>0</v>
+      <c r="B250" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="8">
-        <v>1</v>
+      <c r="B251" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="8">
-        <v>1</v>
+      <c r="B252" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="8">
-        <v>1</v>
+      <c r="B253" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="8">
-        <v>1</v>
+      <c r="B254" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="8">
-        <v>1</v>
+      <c r="B255" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="8">
-        <v>1</v>
+      <c r="B256" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="8">
-        <v>1</v>
+      <c r="B257" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="8">
-        <v>0</v>
+      <c r="B258" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="8">
-        <v>1</v>
+      <c r="B259" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="8">
-        <v>0</v>
+      <c r="B260" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="8">
-        <v>0</v>
+      <c r="B261" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="8">
-        <v>1</v>
+      <c r="B262" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="8">
-        <v>1</v>
+      <c r="B263" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="8">
-        <v>0</v>
+      <c r="B264" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="8">
+      <c r="B265" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4179,7 +4171,7 @@
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="8">
+      <c r="B266" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4187,7 +4179,7 @@
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="8">
+      <c r="B267" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4195,7 +4187,7 @@
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="8">
+      <c r="B268" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4203,7 +4195,7 @@
       <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="8">
+      <c r="B269" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4211,15 +4203,15 @@
       <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="8">
-        <v>1</v>
+      <c r="B270" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="8">
+      <c r="B271" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4227,63 +4219,63 @@
       <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="8">
-        <v>1</v>
+      <c r="B272" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="8">
-        <v>1</v>
+      <c r="B273" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="8">
-        <v>0</v>
+      <c r="B274" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="8">
-        <v>0</v>
+      <c r="B275" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="8">
-        <v>1</v>
+      <c r="B276" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="8">
-        <v>1</v>
+      <c r="B277" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="8">
-        <v>1</v>
+      <c r="B278" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="8">
+      <c r="B279" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4291,39 +4283,39 @@
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="8">
-        <v>0</v>
+      <c r="B280" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="8">
-        <v>1</v>
+      <c r="B281" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="8">
-        <v>1</v>
+      <c r="B282" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="8">
-        <v>1</v>
+      <c r="B283" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="8">
+      <c r="B284" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4331,87 +4323,87 @@
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="8">
-        <v>0</v>
+      <c r="B285" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="8">
-        <v>1</v>
+      <c r="B286" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="8">
-        <v>1</v>
+      <c r="B287" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="8">
-        <v>1</v>
+      <c r="B288" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="8">
-        <v>1</v>
+      <c r="B289" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="8">
-        <v>1</v>
+      <c r="B290" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="8">
-        <v>1</v>
+      <c r="B291" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="8">
-        <v>1</v>
+      <c r="B292" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="8">
-        <v>1</v>
+      <c r="B293" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="8">
-        <v>1</v>
+      <c r="B294" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="8">
+      <c r="B295" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4419,39 +4411,39 @@
       <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="8">
-        <v>1</v>
+      <c r="B296" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="8">
-        <v>1</v>
+      <c r="B297" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="8">
-        <v>0</v>
+      <c r="B298" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="8">
-        <v>1</v>
+      <c r="B299" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="8">
+      <c r="B300" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4459,8 +4451,8 @@
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="8">
-        <v>1</v>
+      <c r="B301" s="7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4472,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,7 +4478,7 @@
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4494,15 +4486,15 @@
       <c r="A2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
+      <c r="B2" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4510,7 +4502,7 @@
       <c r="A4" t="s">
         <v>304</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4518,40 +4510,40 @@
       <c r="A5" t="s">
         <v>305</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4559,39 +4551,39 @@
       <c r="A10" t="s">
         <v>310</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4599,7 +4591,7 @@
       <c r="A15" t="s">
         <v>315</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4607,63 +4599,63 @@
       <c r="A16" t="s">
         <v>316</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4671,7 +4663,7 @@
       <c r="A24" t="s">
         <v>324</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4679,7 +4671,7 @@
       <c r="A25" t="s">
         <v>325</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4687,7 +4679,7 @@
       <c r="A26" t="s">
         <v>326</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4695,31 +4687,31 @@
       <c r="A27" t="s">
         <v>327</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4727,8 +4719,8 @@
       <c r="A31" t="s">
         <v>331</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4728,7 @@
         <v>332</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4736,7 @@
         <v>333</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4752,7 @@
         <v>335</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4760,7 @@
         <v>336</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4768,7 @@
         <v>337</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4776,7 @@
         <v>338</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4784,7 @@
         <v>339</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4792,7 @@
         <v>340</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4808,7 +4800,7 @@
         <v>341</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4816,7 @@
         <v>343</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,7 +4832,7 @@
         <v>345</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4840,7 @@
         <v>346</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4848,7 @@
         <v>347</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4856,7 @@
         <v>348</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4872,7 @@
         <v>350</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4888,7 +4880,7 @@
         <v>351</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4888,7 @@
         <v>352</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4904,7 @@
         <v>354</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4912,7 @@
         <v>355</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4976,7 +4968,7 @@
         <v>362</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +4984,7 @@
         <v>364</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5000,7 @@
         <v>366</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5016,7 @@
         <v>368</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5024,7 @@
         <v>369</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5040,7 @@
         <v>371</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5048,7 @@
         <v>372</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5056,7 @@
         <v>373</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5064,7 @@
         <v>374</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,8 +5079,8 @@
       <c r="A76" t="s">
         <v>376</v>
       </c>
-      <c r="B76" s="6">
-        <v>1</v>
+      <c r="B76" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5088,7 @@
         <v>377</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5096,7 @@
         <v>378</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5120,7 @@
         <v>381</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5128,7 @@
         <v>382</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5136,7 @@
         <v>383</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5144,7 @@
         <v>384</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5168,7 @@
         <v>387</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5184,7 @@
         <v>389</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5200,7 @@
         <v>391</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5208,7 @@
         <v>392</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5240,7 +5232,7 @@
         <v>395</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,7 +5240,7 @@
         <v>396</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5256,7 @@
         <v>398</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,7 +5272,7 @@
         <v>400</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -5288,7 +5280,7 @@
         <v>401</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5288,7 @@
         <v>402</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5296,7 @@
         <v>403</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5312,7 @@
         <v>405</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5352,7 +5344,7 @@
         <v>409</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -5368,7 +5360,7 @@
         <v>411</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -5376,7 +5368,7 @@
         <v>412</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -5384,7 +5376,7 @@
         <v>413</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -5392,7 +5384,7 @@
         <v>414</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -5424,7 +5416,7 @@
         <v>418</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -5432,7 +5424,7 @@
         <v>419</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,7 +5432,7 @@
         <v>420</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -5448,7 +5440,7 @@
         <v>421</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -5456,7 +5448,7 @@
         <v>422</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -5472,7 +5464,7 @@
         <v>424</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5472,7 @@
         <v>425</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5480,7 @@
         <v>426</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5488,7 @@
         <v>427</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -5504,7 +5496,7 @@
         <v>428</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5504,7 @@
         <v>429</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,7 +5512,7 @@
         <v>430</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -5528,7 +5520,7 @@
         <v>431</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5528,7 @@
         <v>432</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5544,7 @@
         <v>434</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5560,7 @@
         <v>436</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5584,7 @@
         <v>439</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5592,7 @@
         <v>440</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5600,7 @@
         <v>441</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5608,7 @@
         <v>442</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5616,7 @@
         <v>443</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5624,7 @@
         <v>444</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -5640,7 +5632,7 @@
         <v>445</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -5656,7 +5648,7 @@
         <v>447</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -5680,7 +5672,7 @@
         <v>450</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -5688,7 +5680,7 @@
         <v>451</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5688,7 @@
         <v>452</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -5712,7 +5704,7 @@
         <v>454</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,7 +5752,7 @@
         <v>460</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -5768,7 +5760,7 @@
         <v>461</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -5776,7 +5768,7 @@
         <v>462</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -5784,7 +5776,7 @@
         <v>463</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,7 +5784,7 @@
         <v>464</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +5808,7 @@
         <v>467</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -5824,7 +5816,7 @@
         <v>468</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -5832,7 +5824,7 @@
         <v>469</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -5840,7 +5832,7 @@
         <v>470</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -5848,7 +5840,7 @@
         <v>471</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -5856,7 +5848,7 @@
         <v>472</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -5864,7 +5856,7 @@
         <v>473</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -5872,7 +5864,7 @@
         <v>474</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -5880,7 +5872,7 @@
         <v>475</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,7 +5880,7 @@
         <v>476</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -5896,7 +5888,7 @@
         <v>477</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,7 +5896,7 @@
         <v>478</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -5920,7 +5912,7 @@
         <v>480</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -5928,7 +5920,7 @@
         <v>481</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +5928,7 @@
         <v>482</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -5968,7 +5960,7 @@
         <v>486</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -5976,7 +5968,7 @@
         <v>487</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +5976,7 @@
         <v>488</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,7 +5984,7 @@
         <v>489</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -6000,7 +5992,7 @@
         <v>490</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,7 +6000,7 @@
         <v>491</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -6024,7 +6016,7 @@
         <v>493</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -6032,7 +6024,7 @@
         <v>494</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,7 +6032,7 @@
         <v>495</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -6048,7 +6040,7 @@
         <v>496</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6056,7 @@
         <v>498</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,7 +6064,7 @@
         <v>499</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6072,7 @@
         <v>500</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6080,7 @@
         <v>501</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Heineken.xlsx
+++ b/Heineken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40946ede84cb16e4/Documentos/C DADOS/cdados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiig\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_4A969315ACA319EBEEB613328B5AF545E12C4A0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE29FFD-B323-431C-8519-12AB0E66B637}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2EFC-2ED6-4C2B-AC53-15AF9638A779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="953">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1613,6 +1613,1422 @@
   </si>
   <si>
     <t>Relevância</t>
+  </si>
+  <si>
+    <t>não dá pra competir com a heineken. 
+qualquer outra cerveja vai ficar pra trás.</t>
+  </si>
+  <si>
+    <t>bebi ontem heineken, chopp da brahma e latão de brahma e tudo de estômago vazio e tô sem ressaca nenhuma. atingir o nível profissional.</t>
+  </si>
+  <si>
+    <t>amei a versão sapatão da heineken https://t.co/pcwrz7b1gu</t>
+  </si>
+  <si>
+    <t>@mccall_2411 heineken é mo amarga</t>
+  </si>
+  <si>
+    <t>só queria meu balde de chopp da heineken de aniversário</t>
+  </si>
+  <si>
+    <t>mouço,pobre quando se acostuma com coisa boa igual heineken,é uma disgraça moço kkkk</t>
+  </si>
+  <si>
+    <t>acho “conceito” aquelas pessoas que bebem heineken andando aleatoriamente na rua, fico só pensando que aquela merda deve estar quente.</t>
+  </si>
+  <si>
+    <t>agradecer mais uma vez a heineken por não me deixar de ressaca kkkkk</t>
+  </si>
+  <si>
+    <t>algay pra assistir a estreia de #notimetodie cmg no cinema? meus amigos odeiam #jamesbond pago uma heineken (sim quero consumir o combo completo)</t>
+  </si>
+  <si>
+    <t>hoje eu já beb brahma, amstel, heineken, gin e vou beber vodka. se eu n fica ruim hj, eu mudo meu nome</t>
+  </si>
+  <si>
+    <t>pra quem conhece 
+heineken é bom?</t>
+  </si>
+  <si>
+    <t>1:41 e eu bebendo uma heineken nem parece que eu tenho que fazer mudança amanhã</t>
+  </si>
+  <si>
+    <t>@justanaps @essediafoilouco fui em 2019 e tinha heineken geladinha.</t>
+  </si>
+  <si>
+    <t>hoje foram 10 heineken para fechar a noite</t>
+  </si>
+  <si>
+    <t>porraaa,queria beber veyyy,beber um  heineken,ou uma skol beachs em grr😩</t>
+  </si>
+  <si>
+    <t>@robertasampaioo @maluterrozo a heineken foi ideia de ayanne kkkk</t>
+  </si>
+  <si>
+    <t>@7anabella7 @vitinho_darima amigo ficou inguiçado de heineken kkkkkk</t>
+  </si>
+  <si>
+    <t>@spfcaicao @spfcgabrielcore beck’s eh a tentativa da ambev de concorrer com a heineken! porém não chega nem aos pés da verdadeir! heineken eh heineken!</t>
+  </si>
+  <si>
+    <t>churrascada no meu aniversário vai dá bom, já até ganhei um barril de heineken</t>
+  </si>
+  <si>
+    <t>@tfernandes34 @marcelofreirerj hahaha, péssimo hábito e o clima ñ colabora. aqui o pessoal bebe cerveja p/ se refrescar, mas no norte da europa serve de alimento. o brasileiro conseguiu fazer isso com a skol, q é escandinava e até amstel, heineken e stella artois tem gente q manda p/ dentro ligeiro.</t>
+  </si>
+  <si>
+    <t>@pvnabhan quando c me arrumar um estágio eu penso em passar uma heineken na sua boca 😮</t>
+  </si>
+  <si>
+    <t>@hindemburgof @clara1850 @kistrose eu bebia heineken todo dia e nem peguei esse vírus, um ótimo remédio.</t>
+  </si>
+  <si>
+    <t>pegar uma maratona de netflix com uma pipoquinha e meia dúzia de heineken 😍</t>
+  </si>
+  <si>
+    <t>caraí...bebi meio copo de heineken hoje tô me sentindo um homão da porra! kkkkk</t>
+  </si>
+  <si>
+    <t>ganhamos 2 engradado de heineken do nada kkkkkkkk</t>
+  </si>
+  <si>
+    <t>da pura com heineken deixa mole demais</t>
+  </si>
+  <si>
+    <t>se tá na garrafa de heineken é heineken kakkakak</t>
+  </si>
+  <si>
+    <t>@mariasantinhah só pagar uma heineken que passa</t>
+  </si>
+  <si>
+    <t>na moral não bebam heineken, spaten, brahma e ipa tudo no mesmo dia sem tomar, água cabeça vai explodir</t>
+  </si>
+  <si>
+    <t>10 horas direto bebendo heineken, já tô treinado</t>
+  </si>
+  <si>
+    <t>cerveja é uma bosta mas heineken é menos bosta</t>
+  </si>
+  <si>
+    <t>o que é a heineken perto de uma lokal https://t.co/6sddhdhufm</t>
+  </si>
+  <si>
+    <t>@fabiilima94 e tomando uma heineken !</t>
+  </si>
+  <si>
+    <t>perdi as conta de tanta heineken q tomei ontem 🥴🥴🥴🥴</t>
+  </si>
+  <si>
+    <t>@oocfintwit fui verificar a veracidade e buscar provas:
+se for com heineken, é ele mesmo. https://t.co/j3dobejlza</t>
+  </si>
+  <si>
+    <t>@mickeyauau_ omg como assi nao é heineken</t>
+  </si>
+  <si>
+    <t>@asachsida ô guedes, eu passaria 300 horas bebendo heineken e escutanto seus contos da carochinha...</t>
+  </si>
+  <si>
+    <t>heineken te venero demais, bebi ontem e estou tranquila pra trabalhar hoje cedo. 🙏</t>
+  </si>
+  <si>
+    <t>como esses cara conseguem beber heineken??</t>
+  </si>
+  <si>
+    <t>tomei o total de 2 heineken no fim de semana inteiro, que desperdício de fim de semana</t>
+  </si>
+  <si>
+    <t>bem amigos, meu vizinho já tá chapando de heineken. 
+segunda-feira, 07:50 da madrugada.</t>
+  </si>
+  <si>
+    <t>beber 8 caipirinhas de 500ml + heineken  0800 num domingão, se a ressaca n vem é deus</t>
+  </si>
+  <si>
+    <t>@jimmyfucker tomei a heineken esses dias e ela não tinha um gosto amargo no final, q eu sinto em praticamente todas. curti</t>
+  </si>
+  <si>
+    <t>hoje estávamos voltando pra casa e caimos em uma blitz, bebemos a tarde toda heineken 0 kkkk foi ótimo está de acordo com a lei</t>
+  </si>
+  <si>
+    <t>deus me livre minha família bebe muito ,papo de 90 heineken ,deus me livre 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>@et_discipulo nossa, infecção por tomar água eu nunca imaginei :( aí é complicado
+eu tô igual teu pai, meu corpo implora por água e eu vou lá e bebo mais uma heineken kkkkk</t>
+  </si>
+  <si>
+    <t>comigo agora é assim: quer me beijar? me pague uma torre de heineken. quer que o beijo tenha língua? pague umas batatas com bacon.</t>
+  </si>
+  <si>
+    <t>no pagode de domingo vou dar 3 balde de heineken se eu tiver feliz !!! https://t.co/erpla9cvpw</t>
+  </si>
+  <si>
+    <t>12 heineken e minha cabeça já tá doendo.
+isso que dá ficar 2 semanas sem beber.
+quando bebia todo dia não era assim 🥴</t>
+  </si>
+  <si>
+    <t>misericórdia,  se fosse stella ou heineken estava fudido.  kkkkkkk https://t.co/vblcwl44ay</t>
+  </si>
+  <si>
+    <t>@jotabahea62 @marconehilton isso. ele é concorrente da ambev e da heineken lá.</t>
+  </si>
+  <si>
+    <t>n sei pq eu comprei heineken, se eu odeio beber ela kkkk</t>
+  </si>
+  <si>
+    <t>só queria 12 reais pra tomar 3 heineken escutando essa</t>
+  </si>
+  <si>
+    <t>só umas 4 heineken já fico bebado, vou até voltar dar um tempo dessas bebidas</t>
+  </si>
+  <si>
+    <t>nossa tô acabado, vou no nhonho pega 6 heineken</t>
+  </si>
+  <si>
+    <t>queria uma heineken geladinha 🤤</t>
+  </si>
+  <si>
+    <t>eu tenho que parar de beber heineken</t>
+  </si>
+  <si>
+    <t>não aguento mais ver heineken kkk esses mlk são foda</t>
+  </si>
+  <si>
+    <t>@drxivete kkkkkkkkkk logooo, nada que uma heineken não resolva, né amg 😂😂😂</t>
+  </si>
+  <si>
+    <t>segunda-feira= depressão, marlboro, heineken e piscina</t>
+  </si>
+  <si>
+    <t>gilian ostentando camarão, polvo, picanha, heineken kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>nada como tomar uma heineken no clodoaldo top demais</t>
+  </si>
+  <si>
+    <t>heineken.....tão amarga mas tão boa, só podia ser deus..................</t>
+  </si>
+  <si>
+    <t>@lemos_dudu essa é a ideia… a porra de uma heineken é 15 conto. você vai pra onde?</t>
+  </si>
+  <si>
+    <t>cheguei da colina agr foram 37 heineken esses meus amigos não tem limites! 🥵</t>
+  </si>
+  <si>
+    <t>ressaquinha de brahma, mas vou jaja curar ela com heineken 🥴😮‍💨</t>
+  </si>
+  <si>
+    <t>queria tá bebendo uma heineken geladinha..</t>
+  </si>
+  <si>
+    <t>vou dormir, fiquei bebo com 6 heineken 🤡</t>
+  </si>
+  <si>
+    <t>peguei um enjôo de heineken e duplo malte q só o cheiro me dá vontade de morrer</t>
+  </si>
+  <si>
+    <t>domingo com 16km e boms litros de heineken</t>
+  </si>
+  <si>
+    <t>@marcel_carvalh0 bebi???? tomei 3 heineken com estômago vazio só kkkkkkk</t>
+  </si>
+  <si>
+    <t>@yyuri__ o sabor parece bastante com a heineken normal. uma mão na roda pra minha dieta kkkk</t>
+  </si>
+  <si>
+    <t>@buffalobillsbr jogo fácil.. heineken é um qb fraco</t>
+  </si>
+  <si>
+    <t>odeio heineken vsf</t>
+  </si>
+  <si>
+    <t>@maateusvini achei o mesmo, povo falando que ela bate de frente com a heineken kkkk o c* de quem acha isso, ela é boa mas n é essas coisas toda n</t>
+  </si>
+  <si>
+    <t>a única cerveja que eu consigo engolir e budweiser ou heineken eu fico fraca com essas 🥲🤌</t>
+  </si>
+  <si>
+    <t>eu tava achando que era quem ontem bebendo só heineken?</t>
+  </si>
+  <si>
+    <t>minha preferência cervejistica (já faz anos que não tomo uma por causa do meu tratamento) é sempre assim. qto mais amarga melhor. amo stella artois, heineken, budweiser (não light! essa eu tomei no raymond james e achei fraca!), guinness, e uma malzbier da brahma de vez em quando</t>
+  </si>
+  <si>
+    <t>eu gostaria de deixar claro aqui nesse tweet que odeio o ppa e a iza por me fazerem gostar de heineken. é só isso mesmo.</t>
+  </si>
+  <si>
+    <t>ne falando nao , mas to bem na sinuca , ate ganhei umas heineken jogando valendo 😅🙅‍♂️</t>
+  </si>
+  <si>
+    <t>quando eu namora vo fica gravando aqueles audio do tiktok tipo hi nenem posso ti compra uma heineken</t>
+  </si>
+  <si>
+    <t>heineken pior cerveja que existe</t>
+  </si>
+  <si>
+    <t>@buenoo00 duas torre, um combo de smirnoff, e um balde de heineken, suave! 🔥</t>
+  </si>
+  <si>
+    <t>@previtileo "changes" depois de umas 6 heineken na caixola é covardia.</t>
+  </si>
+  <si>
+    <t>"já bateu a heineken"</t>
+  </si>
+  <si>
+    <t>📰 ctb | "com aval de zema, heineken ameaça sítio arquelógico onde foi descoberta a luzia"
+🗓️ 24/9/2021
+🔗 https://t.co/rq2g6e6fjt
+📣 #panfleterobot</t>
+  </si>
+  <si>
+    <t>prometi que não ia beber esse fds aí meu pai chega e fala "comprei uma heineken que você gosta" infelizmente tô bebendo</t>
+  </si>
+  <si>
+    <t>@euanjuu @falaamariana que dupla! heineken e vasco. lutando pelo azulão ainda...</t>
+  </si>
+  <si>
+    <t>domingo uma hr dessa eu qria um calor dos inferno c uma roda de pagode e 55 heineken</t>
+  </si>
+  <si>
+    <t>pqp eu to sedenta por uma heineken gelada e ainda falta 24 dias sem álcool</t>
+  </si>
+  <si>
+    <t>antártica original só perde p heineken</t>
+  </si>
+  <si>
+    <t>@camiladasilva08 sai aqui fora, a heineken já vai tá na sua mão kkkk 🤪</t>
+  </si>
+  <si>
+    <t>@saleesmayara mexe essa bunda aí, bota uma roupa e vamo tomar uma heineken mermã</t>
+  </si>
+  <si>
+    <t>vagas de emprego na heineken - 2021 - https://t.co/x21fd9ocqo</t>
+  </si>
+  <si>
+    <t>já começo a semana bem ganhando um fardo de heineken</t>
+  </si>
+  <si>
+    <t>ganhei 5 heineken de graça</t>
+  </si>
+  <si>
+    <t>desce heineken pela de cria rs puxa a tropa nk 🥳</t>
+  </si>
+  <si>
+    <t>@fpbrolho pprt man kkkkkkkkk
+caminhonete lotada de gelo e heineken, lançou a braba</t>
+  </si>
+  <si>
+    <t>@alinezitadias @boleirogruno911 bonito mesmo. um angolano passou na praia hj vendendo por 30 reais. 
+eu quase comprei só pra incentivar a economia informal e a pirataria. 
+mas preferi investir os 30 em heineken.</t>
+  </si>
+  <si>
+    <t>comprei amstel vulgo melhor cerveja e meu tio vem com historia de que so toma heineken</t>
+  </si>
+  <si>
+    <t>@rubro_negro07 só uns heineken papai</t>
+  </si>
+  <si>
+    <t>amêndoa amarga, somersby, heineken, rosé, poejo, salve-se quem puder com esta mistura de hoje... 😅🤣</t>
+  </si>
+  <si>
+    <t>isso que é manicure, me trouxe uma heineken geladinha 💚</t>
+  </si>
+  <si>
+    <t>@pedrojansen se eles soubessem da munhequeira da heineken na época da banda... 👀</t>
+  </si>
+  <si>
+    <t>@marcelofreirerj então, eu até gosto de cerveja, mas não qq uma. tomo uma heineken, mas uma skol (suco de milho fermentado eu já não tomo). porém eu tenho evitado cerveja. eu engordei muito na pandemia. a cerveja te deixa inchado. tenho bebido muito vinho e whisky.</t>
+  </si>
+  <si>
+    <t>meu pai tá cheio de heineken já 😂</t>
+  </si>
+  <si>
+    <t>@g_ramoss11 @oemputecido itaipava não, só heineken pra cima 😏</t>
+  </si>
+  <si>
+    <t>não aguento mais ver heineken hj 😵‍💫</t>
+  </si>
+  <si>
+    <t>@dimitrinovo se a msm vibe for comprar heineken todo fim de semana, aí fica foda acompanhar</t>
+  </si>
+  <si>
+    <t>heineken + zé neto e cristiano = 🤡</t>
+  </si>
+  <si>
+    <t>e eu que vou fazer um freela no bar e acabo saindo chapada de heineken hahahahaha</t>
+  </si>
+  <si>
+    <t>era só minha heineken trincando do lado da piscina do raposo com os amigo q eu gosto uma hora dessa pra eu ficar feliz</t>
+  </si>
+  <si>
+    <t>hi neném, posso te pagar uma heineken??</t>
+  </si>
+  <si>
+    <t>cheguei as 7, tomei café com meu pai e dormi até agora, já vou abrir a heineken</t>
+  </si>
+  <si>
+    <t>melhor marca de cerveja? 
+heineken sem dúvidas.</t>
+  </si>
+  <si>
+    <t>quem um dia me falou que heineken não da ressaca bebeu errado eu msm to falecida 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>desceu heineken</t>
+  </si>
+  <si>
+    <t>@jen_nascimento e você só estar pensando pq pediu heineken</t>
+  </si>
+  <si>
+    <t>@aigatomeerra tomei duas heineken. passou
+quero *** quero ***** quero ***** quero ******</t>
+  </si>
+  <si>
+    <t>salivando por uma heineken, qnd sair do trampo vou ter q errar. 🤷🏽‍♀️</t>
+  </si>
+  <si>
+    <t>@ale_olvr tive que sentar do lado de fora e tem um senhorzinho no banco ao lado bebendo uma heineken e olhando pro nada, eu aí no futuro kkkkkkkk</t>
+  </si>
+  <si>
+    <t>drinking a heineken by @heineken @ cachoeira poço azul — https://t.co/ikbhpz9zdu</t>
+  </si>
+  <si>
+    <t>@dias_luandro @joaomarquesjr_ foi tu que disse que quando botasse era só heineken</t>
+  </si>
+  <si>
+    <t>coitado do heineken, ninguém liga pra ele. https://t.co/grek1xkmtv</t>
+  </si>
+  <si>
+    <t>tá rolando o churrasco + heineken gelada</t>
+  </si>
+  <si>
+    <t>ainda bem que a heineken sem álcool não é ruim 😂😂</t>
+  </si>
+  <si>
+    <t>dia bom pra tomar umas 48 heineken gelada</t>
+  </si>
+  <si>
+    <t>hoje é só uma heineken e o grêmio, vamoooooo 🙏🇪🇪💙</t>
+  </si>
+  <si>
+    <t>heineken cê tá doido</t>
+  </si>
+  <si>
+    <t>encontrar heineken em manaus ta cruel</t>
+  </si>
+  <si>
+    <t>@camzj07 ei amr... esse ngc q eu tomo heineken é fake news</t>
+  </si>
+  <si>
+    <t>como eu amo uma heineken geladinha🥰</t>
+  </si>
+  <si>
+    <t>pedi heineken 0 alcool sem querer q odio mto burra kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>heineken de 600 ml e muito bom</t>
+  </si>
+  <si>
+    <t>e desceu heineken hj 🍻</t>
+  </si>
+  <si>
+    <t>bebendo heineken desde cedo, tá me derrubando kkkkkkk</t>
+  </si>
+  <si>
+    <t>adriana: marcel quem canta essa música?
+marcel: amstel, stella, heineken kakakakkakakakakk</t>
+  </si>
+  <si>
+    <t>@limatunflai @mscardosooo tem como nao gostar de uma heineken geladinha?</t>
+  </si>
+  <si>
+    <t>@guirocha92 @venturaml_ uma caixa de heineken é foda hein kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@pysalles meu domingo só ficaria mais feliz se a gente estivesse escutando um art popular ao redor da churrasqueira da casa do @scorza_gabriel com uma heineken na mão...</t>
+  </si>
+  <si>
+    <t>@madame_te calma, churrasco tem sempre dessas coisas.
+levou picanha australiana, e cerveja heineken. 
+e como cupim, e cerveja quente.
+por isso, não me separo de minha cachaça e torresmo.</t>
+  </si>
+  <si>
+    <t>@alentaputo @brenik10 brahma tava 10, heineken 12… na social, na bancada n sei se deve mudar mano</t>
+  </si>
+  <si>
+    <t>hi neném, posso te pagar uma heineken?</t>
+  </si>
+  <si>
+    <t>eu tomei tres cerveja e to morrendo de dor de cabeça, socorro to muito velha.. ou heineken me dá isso</t>
+  </si>
+  <si>
+    <t>a transmissão do futebol europeu no sbt que contava com apoio de sporting bet, heineken e whatsapp agora conta com rexona #liganosbt https://t.co/nmwbhggxsa</t>
+  </si>
+  <si>
+    <t>@guirocha92 @venturaml_ mas temos que colocar um prazo aí né kkkkkkk que ele vai mandar, bem provável, mas em quantos dias tu acha? valendo uma caixa de heineken kkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>heineken é tao delicinha, n entendo o hate</t>
+  </si>
+  <si>
+    <t>hj eu tava na rua e passaram 2 maluco numa moto, o de trás segurando uma heineken e se jogando pra trás quase caindo, o da frente desesperado falando tu vai cair mano coe levanta. nessa brincadeira o maluco de trás deixou a camisa cair, eu tava longe e n consegui avisar</t>
+  </si>
+  <si>
+    <t>olha esse heineken</t>
+  </si>
+  <si>
+    <t>nossa mas aquela heineken estava boa demaaaais, queria de novo</t>
+  </si>
+  <si>
+    <t>@dgklein22_ @marcelofjv77 @___vitoriinhaa tomei 2 heineken de 600.. mas café eu não bebi hoje!</t>
+  </si>
+  <si>
+    <t>@pringabs a sol tb eh maravilhosa, viu. heineken la embaixo</t>
+  </si>
+  <si>
+    <t>pagando com a língua mais uma vez kkkkkk tá descendo heineken igual água, aí calicaaa 🤪🤪🤪</t>
+  </si>
+  <si>
+    <t>tá descendo heineken 🥴</t>
+  </si>
+  <si>
+    <t>@ifreitas_ heineken não perde p nenhuma</t>
+  </si>
+  <si>
+    <t>@sofascorebr isso pq é kaiser, imagina se fosse heineken ...</t>
+  </si>
+  <si>
+    <t>@bolad0rdabanca bud é melhor que heineken</t>
+  </si>
+  <si>
+    <t>mais uma garrafa de heineken eu n subo o morro do alan</t>
+  </si>
+  <si>
+    <t>secado 2 barieis de 30 litros cada e mais 3 caixinhas de heineken chamaaa caraiooo 🔥🔥</t>
+  </si>
+  <si>
+    <t>realmente não é uma boa, mas o alento é que a heineken, costuma manter a fidelidade nas composições das suas cervejas. https://t.co/pspbt1iciz</t>
+  </si>
+  <si>
+    <t>achei que aguentava acompanhar o engraçadinho nas heineken, na 9° eu ja nao tava bem 
+agora tô aqui com dor de cabeça</t>
+  </si>
+  <si>
+    <t>desce heineken, nem bebo essa porra kkkk</t>
+  </si>
+  <si>
+    <t>a heineken quando tá gelada https://t.co/cf2rn9yisa</t>
+  </si>
+  <si>
+    <t>depressão vc n pode me pegar quando estou bebendo uma heineken geladinha</t>
+  </si>
+  <si>
+    <t>essa fita de gostar de coisa boa e complicado o bonito agora só quer saber de tomar heineken ou corona vê se pode</t>
+  </si>
+  <si>
+    <t>nunca mais tomo heineken</t>
+  </si>
+  <si>
+    <t>quem acorda as 05:00 bebe heineken https://t.co/ub9eipp4bz</t>
+  </si>
+  <si>
+    <t>@spfcgabrielcore heineken em primeiro, budweiser em segundo, corona em terceiro</t>
+  </si>
+  <si>
+    <t>a regra é clara: postou foto tomando heineken sem álcool tá gravida</t>
+  </si>
+  <si>
+    <t>até chorei aqui vou beber minhas duas heineken</t>
+  </si>
+  <si>
+    <t>outubro é aniversário do meu pai, mas ele começa a começar em setembro kkkkkkk heineken na conta do coroa até dia 10🤣</t>
+  </si>
+  <si>
+    <t>eu amo meu padrinho mas comprar antártida beber minhas heineken me deixou puta de raiva</t>
+  </si>
+  <si>
+    <t>só eu q n suporto playboyzinho de interior? enfia no cu tua heineken e tua ignorância</t>
+  </si>
+  <si>
+    <t>cheio de heineken aqui e não consigo beber uma, que raiva quando a cerveja não desce por nada</t>
+  </si>
+  <si>
+    <t>desculpa aí, emanuel, mas heineken e corona são as melhores cervejas e qm discorda tá errad9</t>
+  </si>
+  <si>
+    <t>pra finalizar era só umas heineken agora</t>
+  </si>
+  <si>
+    <t>cheguei a um ponto crítico da minha vida: estou bebendo heineken e não tô mais achando amarga 😬</t>
+  </si>
+  <si>
+    <t>ontem nós acabamos um balde de heineken em 10min pra não deixar a cerveja na festa, kk
+legal foi o efeito logo depois 😂
+ai, ai</t>
+  </si>
+  <si>
+    <t>@dududzbot saldo do fds: 1 heineken e 2 tapetes kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>taquaras tem cheiro de heineken</t>
+  </si>
+  <si>
+    <t>sem vontade de beber dps das últimas ressacas traumáticas mas se me oferecer uma heineken eu aceito https://t.co/yazk3ouju7</t>
+  </si>
+  <si>
+    <t>está descendo muita heineken hoje, isso vai dar merda 🤪</t>
+  </si>
+  <si>
+    <t>eu tô numa brisa de ontem kkkkkkkk whiskey e heineken véia kkkk</t>
+  </si>
+  <si>
+    <t>saudades daquela heineken 🥵</t>
+  </si>
+  <si>
+    <t>impossível confiar em alguém que fala q bud é melhor q heineken</t>
+  </si>
+  <si>
+    <t>tô viciada em tomar heineken</t>
+  </si>
+  <si>
+    <t>@motokomunnist hahahahaha sou eu merma, a liih!!!
+te vejo tomando cerveja de canudinho, me lembra meus 20 anos.kkkk
+a spaten é boa, não sei qto paga aí, aqui quase 4reaus.
+@marcbenedictis substitui a heineken pela schin envasada aqui em salvador, pela heineken.</t>
+  </si>
+  <si>
+    <t>eu sou o único que não consegue gostar de heineken? prefiro uma skolzinha</t>
+  </si>
+  <si>
+    <t>5 heineken em casa e eu com preguiça de ir buscar 😴😴</t>
+  </si>
+  <si>
+    <t>fim de rolé, com minha heineken em casa e camaaaaa</t>
+  </si>
+  <si>
+    <t>@larissaolarte diz q é parecida com heineken mas bem mais barata</t>
+  </si>
+  <si>
+    <t>@motokomunnist larguei a loira heineken por ela kkkk... boa demais</t>
+  </si>
+  <si>
+    <t>heineken é horrível gente, não sei como cês consegue beber kkkkks sou mais uma brahma geladissima 🤤</t>
+  </si>
+  <si>
+    <t>@poesisdaniela só heineken e brahma duplo malte pra me deixar bonzinho no outro dia</t>
+  </si>
+  <si>
+    <t>jack deu a planta da heineken ontem, estava boa demais a cerveja 🍻</t>
+  </si>
+  <si>
+    <t>comprei mais heineken e só faltou o churrasco</t>
+  </si>
+  <si>
+    <t>dia tá bom p tomar uma heineken</t>
+  </si>
+  <si>
+    <t>@helenam14723009 @carlosbolsonaro pão com mortadela? deixo pra vc, vou comer picanha kkkk tomar minha heineken...retardada é vc pobre de direita, eu sei onde é meu lugar ao sol kkkkk beijim no ombro🥰</t>
+  </si>
+  <si>
+    <t>@azzulingabriela a heineken deve tá 20 então..</t>
+  </si>
+  <si>
+    <t>eu não posso com festa open heineken sequei o bar</t>
+  </si>
+  <si>
+    <t>@paolo_crf o renê deve ter a fonte de heineken gelada por r$4,00 essa é a única desculpa para ele estar nesse elenco.</t>
+  </si>
+  <si>
+    <t>desceu uma caixa de heineken</t>
+  </si>
+  <si>
+    <t>acho que a heineken me deixou com dor de cabeça 😢</t>
+  </si>
+  <si>
+    <t>heineken é a cerveja mãos gostosa que existe, mas a ressaca dela mata</t>
+  </si>
+  <si>
+    <t>pagar 60 ou 80 reais só em tintura? comprar heineken isso sim 
+a vô é demaaaaiss kkkkkkkk</t>
+  </si>
+  <si>
+    <t>- bebi 10 heineken e estou de boa 🥴</t>
+  </si>
+  <si>
+    <t>esse kaizer é bom imagina se fosse um heineken.. 🤣🤣</t>
+  </si>
+  <si>
+    <t>@badcarolys só esqueceu de um detalhe: não posso tomar heineken kkkkk</t>
+  </si>
+  <si>
+    <t>@fearantes00 @hellenspviva @mscabral bora! só se for agora. hellen, tem heineken aí?</t>
+  </si>
+  <si>
+    <t>flu ganhando…. desce heineken!✅</t>
+  </si>
+  <si>
+    <t>não sou acostumada a tomar heineken tomei 10 já estou levemente alterada kkkkkkk iii</t>
+  </si>
+  <si>
+    <t>@badbiag sem álcool eu recomendo a heineken, achei o gosto idêntico a original. já a brahma eu achei aguadaça.</t>
+  </si>
+  <si>
+    <t>eu comecei a beber cozumel feito com heineken e viciei</t>
+  </si>
+  <si>
+    <t>eu como smp mt gentil, encantei um mlk e ele fez as honras de me pagar um balde de heineken kkkkkkkkkkkkk mt agradecida fiz questão de beber todas</t>
+  </si>
+  <si>
+    <t>churras tá bom heineken a rola</t>
+  </si>
+  <si>
+    <t>ia beber só uma heineken , já comecei sem parar 🇸🇦</t>
+  </si>
+  <si>
+    <t>@legadaodamassa podem falar o que quiser nesse tuíte, porque quando a heineken for fazer publi com o legadao ele será sumariamente apagado.</t>
+  </si>
+  <si>
+    <t>chopp da heineken é tudo 🤤</t>
+  </si>
+  <si>
+    <t>el coronita vicia demais, tô mais nem tchum p heineken</t>
+  </si>
+  <si>
+    <t>mano se esse ano o campeonato for decidido na última corrida, eu vou querer no mínimo um churrasco patrocinado pela heineken pra assistir a corrida no clima certo</t>
+  </si>
+  <si>
+    <t>@venturaml_ @guirocha92 vou nem bloquear, vai que eu ganho uma caixa de heineken haudhsushsushsh</t>
+  </si>
+  <si>
+    <t>@joaooneroni bebi uma só dps q acabo as budweiser e as heineken</t>
+  </si>
+  <si>
+    <t>uma latinha de heineken e já tô bêbada juro pra vcs</t>
+  </si>
+  <si>
+    <t>querendo beber uma heineken</t>
+  </si>
+  <si>
+    <t>pra hj eu só queria uma pisci + heineken</t>
+  </si>
+  <si>
+    <t>heineken &amp;gt; mac jones
+paz. que jogo em buffalo.</t>
+  </si>
+  <si>
+    <t>heineken pelo amor de deus faça alguma coisa https://t.co/rysmyxt0jn</t>
+  </si>
+  <si>
+    <t>2 horas de exercícios físicos pra ir se hidratar e tomar heineken em vez de água kkkkkkk</t>
+  </si>
+  <si>
+    <t>minha mãe morta depois de beber brahma heineken e gt 🤡</t>
+  </si>
+  <si>
+    <t>queria tanto tomar umas heineken’s</t>
+  </si>
+  <si>
+    <t>heineken pior cerveja disparada</t>
+  </si>
+  <si>
+    <t>estudar no domingo, pra depois daqui alguns anos, postar foto na beira de uma praia tomando uma heineken</t>
+  </si>
+  <si>
+    <t>foi o maior erro bota na garrafa de heineken kkkkkk</t>
+  </si>
+  <si>
+    <t>mereço um murro na cara por cada vez q eu já falei q n gostava de heineken</t>
+  </si>
+  <si>
+    <t>estou tomando heineken, champanhe. comendo salmão. dentro de um castelo. que domingo, amigos.</t>
+  </si>
+  <si>
+    <t>@sarahhgolfetto na verdade prefiro uma corona, uma heineken, masssss kkkkkk</t>
+  </si>
+  <si>
+    <t>espero que esse povo não tenha acabado com o estoque de heineken no jb, porque olha, sinceramente....</t>
+  </si>
+  <si>
+    <t>só um caldo e umas heineken</t>
+  </si>
+  <si>
+    <t>com meu latão de heineken n quero guerra com ngm</t>
+  </si>
+  <si>
+    <t>meu primo não pagou uma pack de heineken não né? kkkkkk</t>
+  </si>
+  <si>
+    <t>a ideia era não beber hoje, aí a pessoa chega aqui em casa com uma caixa térmica cheia de heineken 🥲🥲🥲</t>
+  </si>
+  <si>
+    <t>encontrei minha cerveja, império muito melhor que heineken</t>
+  </si>
+  <si>
+    <t>@armandonoguera1 pq no decis nomas que no tenes plata para comprar heineken</t>
+  </si>
+  <si>
+    <t>heineken eo verde quero mais nada...  domingo tranquilo</t>
+  </si>
+  <si>
+    <t>@hseokindior mulher nem é heineken te juro é uma chamada império mas é mó gostosinha</t>
+  </si>
+  <si>
+    <t>ontem o @joaos_neto me fez tomar heineken 🤢</t>
+  </si>
+  <si>
+    <t>pra hoje só uma heineken</t>
+  </si>
+  <si>
+    <t>heineken hoje está descendo igual água</t>
+  </si>
+  <si>
+    <t>@eliangvz e n é desse fds pq n bebi heineken nesse 😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>@heineken após coronavac aumenta 40x os anticorpos https://t.co/mzri8nks9n</t>
+  </si>
+  <si>
+    <t>pq eu quase não gosto de uma heineken 😂😎 https://t.co/smhku00j1p</t>
+  </si>
+  <si>
+    <t>domingo 23:23
+acabei de abrir uma latinha de heineken
+eu claramente ja desisti da vida</t>
+  </si>
+  <si>
+    <t>nhanhanha e heineken papai 😁</t>
+  </si>
+  <si>
+    <t>fui em um barzinho ontem bebi cadin , heineken (cerveja horrível , mas tudo bem bebi)  bebi pinga , caipirinha e já amanheci chamando o raul 😂😂😂😂😂😂🥺🥺🥺 oh dó do neném ;(</t>
+  </si>
+  <si>
+    <t>22 conto uma heineken aqui no biri biri, meu bolso chora sangue.</t>
+  </si>
+  <si>
+    <t>não sei se eu bebo whisky ou heineken</t>
+  </si>
+  <si>
+    <t>meu almoço foi heineken com ketel one aí que delícia aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>@ricardobarsil pois é, bebi essa heineken sem álcool, não senti diferença.  comprei errado e não vi. e, adorei, acordei super bem, nenhuma moleza, ressaca, nada. eu gosto de cerveja, do gosto da cerveja. vou ver a brahma!</t>
+  </si>
+  <si>
+    <t>do que adianta zé delivery se não tem heineken?</t>
+  </si>
+  <si>
+    <t>que domingo bom pra tomar uma heineken trincando na beira da piscina 🥵</t>
+  </si>
+  <si>
+    <t>“ um balde  de heineken “ “um balde de original “nunca escutei tanto na minha vida isso uauauauaia</t>
+  </si>
+  <si>
+    <t>que dia pra tropeçar e cair dentro de um cooler cheio de heineken</t>
+  </si>
+  <si>
+    <t>ontem o mano ficou jogando orloff no copo de heineken, fui inventar de seguir ele agr a cabeça tá doendo de mais</t>
+  </si>
+  <si>
+    <t>império gold e heineken infinito 🤪</t>
+  </si>
+  <si>
+    <t>@flymars_ @rayssoon @helderbarbosa8 @ericfaria74 eu pegava com uma heineken na mão! o que não exime o renê de ter sido patético!</t>
+  </si>
+  <si>
+    <t>no máximo império, heineken e brahma duplo malte são ótimas,bebo que nem água mas,o resto slk ruizao pra caralho https://t.co/p4f3qsr6pz</t>
+  </si>
+  <si>
+    <t>a minha madrinha votou cdu por causa de uma discussão que tivemos em casa dela quando estava agarrado a um barril de heineken</t>
+  </si>
+  <si>
+    <t>@bayscolorado achei! obrigado, assim que der tomaremos essas heineken juntos</t>
+  </si>
+  <si>
+    <t>não tem um dia que eu não pense em vc….. heineken long neck</t>
+  </si>
+  <si>
+    <t>@brito616 tudo é ahahhah é bizarro
+tira heineken, eisenbahn, devassa, amstel e itaipava, cabo praticamente</t>
+  </si>
+  <si>
+    <t>@hey_mika é o mesmo público da heineken</t>
+  </si>
+  <si>
+    <t>eu sinceramente n consigo mais beber brahma, so me desce heineken ou bud</t>
+  </si>
+  <si>
+    <t>tiger faz sua estreia na mídia tradicional: objetivo da marca do grupo heineken é apresentar para o consumidor as características da cerveja puro malte com garra. https://t.co/ag6ohxxfsd https://t.co/0y9lwz8da9</t>
+  </si>
+  <si>
+    <t>nós ontem na taty girl
+heineken: a
+nós: a mãe tá extorada, exquece https://t.co/bxzcqhelih</t>
+  </si>
+  <si>
+    <t>heineken 7 reais 
+litro de gasolina 7 reais 
+questão é abastecer eu ou a moto agr</t>
+  </si>
+  <si>
+    <t>comprei uma caixinha de bud pro meu tio né, aí chego aqui em casa ele fala para eu ir trocar por heineken, disse que bud é amarga, o véi meteu essa?</t>
+  </si>
+  <si>
+    <t>@joanadecastro6 eu tinha 2 heineken.  com 🌟 vermelha 🚩</t>
+  </si>
+  <si>
+    <t>tomei 3 heineken e to o dia todo com dor de cabeça, que ódio</t>
+  </si>
+  <si>
+    <t>louco desceu heineken</t>
+  </si>
+  <si>
+    <t>essa heineken devia está estragada ou vencida pra eu passar tão mal assim</t>
+  </si>
+  <si>
+    <t>@adrianobritoc ou então vai ter open bar de heineken sio das duas uma kkkkkkkkkkkkkkkkkk pqp</t>
+  </si>
+  <si>
+    <t>mlk tô contando os dias pra tomar um álcool tá maluco não aguento mais beber redbull e heineken zero kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>vontade de tomar 58 heineken com limãozinho dentro da garrafinha</t>
+  </si>
+  <si>
+    <t>[26/9 22:30] joshua almeida: real significado de devendo e luxando
+[26/9 22:35] : né querendo dar um de fofoqueiro n
+[26/9 22:36] : mas ele só bebe heineken ainda
+[26/9 22:36] : long ainda</t>
+  </si>
+  <si>
+    <t>heineken me deixando com dor de cabeça como sempre, eu só n consigo desistir dela</t>
+  </si>
+  <si>
+    <t>@celsopr22639258 @ivermectinatha aqui a heineken já é $20 kkk</t>
+  </si>
+  <si>
+    <t>[26/9 11:01] bruna: tá fazendo oq ?
+eu: rest
+bruna:porraa
+bruna:ia te chamar p ir no bar do meu pai
+bruna:só que lá não vende heineken 😂
+eu:vamo semana q vem??
+eu:domingo q vem to de folga
+bruna:siim, fechou
+bruna: aí eu falo p ele fazer churrasco p  noix
+amigos q me conhecem!!</t>
+  </si>
+  <si>
+    <t>já foi 12k de diária, fora as cervejas heineken e os churrascos diários</t>
+  </si>
+  <si>
+    <t>@octavio_guedes @miltonneves @juliaduailibi terceira via é levar belco mas tomar a heineken no churrasco</t>
+  </si>
+  <si>
+    <t>@vitinho_darima @mcoreo7 kkkkkk a heineken eh foda, deixou vcs em outro mundo</t>
+  </si>
+  <si>
+    <t>o sabor q é tomar heineken e não acordar parecendo que foi atropelada por um trem</t>
+  </si>
+  <si>
+    <t>ouvi essa música nova do henrique e juliano e pedi duas caixinhas de heineken, minha fiaaaa bebe pouco</t>
+  </si>
+  <si>
+    <t>picanha rolando, heineken gelada…. domingou</t>
+  </si>
+  <si>
+    <t>foi me buscar no concurso com uma heineken gelada e um chocolate, é o amor da minha vida ❤️</t>
+  </si>
+  <si>
+    <t>tomar umas heineken com papai</t>
+  </si>
+  <si>
+    <t>heineken é tão superestimada 😮‍💨</t>
+  </si>
+  <si>
+    <t>meu pai nunca bebeu heineken e eu já kkkkkkkkkkkkk como assim</t>
+  </si>
+  <si>
+    <t>vou ali na rua beber umas heineken</t>
+  </si>
+  <si>
+    <t>tomei umas heineken que  me embriaguei cbls 😅</t>
+  </si>
+  <si>
+    <t>alguém que tenha piscina disponível? eu levo a heineken</t>
+  </si>
+  <si>
+    <t>hoje eu só queria um pagodin e heineken https://t.co/lhc1dz45wr</t>
+  </si>
+  <si>
+    <t>vou beber uma heineken, tô nem aí</t>
+  </si>
+  <si>
+    <t>melhor marca de cerveja? 
+heineken namoral né</t>
+  </si>
+  <si>
+    <t>tô na heineken de carreira solo solitário</t>
+  </si>
+  <si>
+    <t>recusei tomar heineken com mamae ressaca oq fez comigo</t>
+  </si>
+  <si>
+    <t>@michele_toardik kayzer jogou como heineken hoje!</t>
+  </si>
+  <si>
+    <t>passei o dia todo tomando heineken sem álcool e só percebi agora kkk
+quem vier falar que é muito diferente que vá se catar, não é não, o gosto é quase igual, nem vem</t>
+  </si>
+  <si>
+    <t>deixo aqui meu muito obrigada a heineken por fazer uma cerveja sem álcool decente. euzinha q tô aqui tomando antibiótico agradeço.</t>
+  </si>
+  <si>
+    <t>comprei a heineken e elas congelaram, mas q caraio</t>
+  </si>
+  <si>
+    <t>@airoso_ana nem me fale, era pelo menos só uma heineken gelada</t>
+  </si>
+  <si>
+    <t>talvez eu esteja levemente altera de heineken</t>
+  </si>
+  <si>
+    <t>zé delivery é sucesso, falta só ter a heineken no catálogo</t>
+  </si>
+  <si>
+    <t>tá muito cedo ou já posso estalar a heineken? 🤔</t>
+  </si>
+  <si>
+    <t>mano 37 heineken!!!!! 3 pessoas</t>
+  </si>
+  <si>
+    <t>se eu ver uma heineken hj eu vomito</t>
+  </si>
+  <si>
+    <t>@mariaguel123 @barboreh @beruta @jacck13 @lelecoutz @nicarineni @pahega @paulotruglio @soghetti @waldirporfirio grata, querida maria! café da tarde com bolo e café é realmente tudo de bom! e o pudim também! 😋😋😋 demaaais! e com muita água de coco! curtimos! 🤘🤘🤘 no jantar beberemos heineken! linda noite e muuuitos beijos pra ti, querida! 😘🌺❤️🌻😘💐❤️🌼😘🌸❤️🌷😘🌹 https://t.co/4p2duax1w8</t>
+  </si>
+  <si>
+    <t>@babyweknd gosto, porém depende, a skol e itaipava são muitos amargas, prefiro a brahma ou a heineken</t>
+  </si>
+  <si>
+    <t>vontade do krai de beber uma heineken bem geladinha</t>
+  </si>
+  <si>
+    <t>só uma heineken dps do trabalho.</t>
+  </si>
+  <si>
+    <t>@claudinei_oliv3 @guerreiroazzul @betao03 @cdelosantos @ambev @cebolinha1923 tá aí a prova que vc tava com a família!
+tio ttotti saiu pra comprar heineken pra vc falador! https://t.co/jvdzgsuceo</t>
+  </si>
+  <si>
+    <t>tá descendo heineken 🍻🥵</t>
+  </si>
+  <si>
+    <t>@rmmesquita boa. mas ainda prefiro a heineken.</t>
+  </si>
+  <si>
+    <t>@retintapreta aqui vamos de pastel. a heineken já está gelando</t>
+  </si>
+  <si>
+    <t>hi neném eu posso te pegar uma heineken?</t>
+  </si>
+  <si>
+    <t>era só uma heineken bem geladinhaa</t>
+  </si>
+  <si>
+    <t>já tô enjoado de heineken</t>
+  </si>
+  <si>
+    <t>experimentei  red label e heineken hoje
+krl q gosto de asfalto da prr, pessoal nem bebe pelo gosto, só serve pra ficar bebado mesmo, outro dia vou tentar de novo</t>
+  </si>
+  <si>
+    <t>2 meses sem beber e hj tomei uma heineken 😀</t>
+  </si>
+  <si>
+    <t>peguei uma heineken lindamente gelada pra beber e pensei
+poha merece um tira gostozinho
+cheguei na cozinha tava uma zona, decidi lavar as vasilhas e organizar tudo
+tinha um sapato (???) embaixo da pia, eu fui guardar no quarto, que também estava uma zona, decidi organizar</t>
+  </si>
+  <si>
+    <t>tomei 3 heineken fiquei tão vadia kkkkk</t>
+  </si>
+  <si>
+    <t>tomei a 0% álcool da heineken ontem 
+delícia demais heim, recomendo.</t>
+  </si>
+  <si>
+    <t>beberia umas dez heineken hoje também, depois que ralar da casa da minha coroa, mas tô cansadao já tbm</t>
+  </si>
+  <si>
+    <t>@gomesraphael imagina se fosse chamado de heineken…</t>
+  </si>
+  <si>
+    <t>a clairo ama uma cervejinha já sei o que vou dá pra ela quando nos encontramos, um pacote de heineken.</t>
+  </si>
+  <si>
+    <t>cara tem um casal bebendo heineken na varanda, musiquinha de fundo e soft light
+eu tô ouvindo amsterdam do coldplay.
+meu pai amado.</t>
+  </si>
+  <si>
+    <t>vocês que toma heineken é porque vocês gosta ou porque é modinha?
+eu sinceramente acho essa cerveja horrível</t>
+  </si>
+  <si>
+    <t>@sanseverini no meu caso é pelado, tomando uma heineken e comendo omelete.
+nem ideia do que isso quer dizer sobre a gente, mas bom domingo pro cê também! hahaha</t>
+  </si>
+  <si>
+    <t>picanha macia heineken gelada eu não quero guerra com ninguém 🤣😅</t>
+  </si>
+  <si>
+    <t>e eu que só vi agr que apareceu minha heineken na foto que postei no insta kkkkkk</t>
+  </si>
+  <si>
+    <t>data histórica na qual o andre desceu 10 combos de heineken</t>
+  </si>
+  <si>
+    <t>se eu tivesse mais tempo ia montar um forms pra investigar pq as pessoas gostam de heineken até elas perceberam que não gostam de heineken</t>
+  </si>
+  <si>
+    <t>@rmmesquita é boa. comprei algumas vezes pq tava mais barata q a heineken</t>
+  </si>
+  <si>
+    <t>hey hi neném, posso te pagar uma heineken?</t>
+  </si>
+  <si>
+    <t>@lucianodiasslz heineken sem álcool? mas, como que ela te derruba se não tem álcool?</t>
+  </si>
+  <si>
+    <t>heineken é uma delícia, acordei sem ressaca nenhuma</t>
+  </si>
+  <si>
+    <t>nunca fui de beber heineken não mais os cara quer pagar pra mim kkkkk</t>
+  </si>
+  <si>
+    <t>@analuizaf7 te falar que eu esperava um massacre dos dois lados, mas o heineken tá surpreendendo</t>
+  </si>
+  <si>
+    <t>heineken trincando pós fórmula 1 é mto bom d+ 5/5</t>
+  </si>
+  <si>
+    <t>eu até penso em parar de beber, mas o genro holandês da minha vizinha não deixa. o sujeito vem da terra da heineken e não admite recusas. deve ter nascido com dois fígados.</t>
+  </si>
+  <si>
+    <t>@liciamaracaipe o segredo é regar com heineken? sabia que tava faltando algo naquele manjericão que comprei de vc😂</t>
+  </si>
+  <si>
+    <t>depois alguém me passa a visão quanto está a heineken pra eu ir me preparando para férias 🤣🤣🤣📝📝</t>
+  </si>
+  <si>
+    <t>vi gente falando q heineken é ruim bebendo heineken</t>
+  </si>
+  <si>
+    <t>nunca mais tinha bebido heineken, que cerveja gostosa 😍</t>
+  </si>
+  <si>
+    <t>tô aq no bar doida pra beber uma heineken</t>
+  </si>
+  <si>
+    <t>não sou chegado em cerveja mas essa heineken é muito boa.</t>
+  </si>
+  <si>
+    <t>eu disse no dia das heineken q o bahia ia ganhar nenhum jogo de 7... só ganhou o primeiro mesmo, maldito rodallega 🥴🥴🥴</t>
+  </si>
+  <si>
+    <t>fogão pagou o fardo de heineken https://t.co/fu3ov4l3pp</t>
+  </si>
+  <si>
+    <t>@sarahhfernanda_ vc me deve um hambúrguer uma coca e uma heineken pelo oq me fez passar</t>
+  </si>
+  <si>
+    <t>nada do que uma heineken geladinha não resolva</t>
+  </si>
+  <si>
+    <t>a heineken quando tá quente https://t.co/cpwvcuj2nc</t>
+  </si>
+  <si>
+    <t>levemente embriagada com duas heineken 🤡</t>
+  </si>
+  <si>
+    <t>o foda é que eu to aguando por uma festa de criança, hambúrguer, pizza, rodízio de japa, churrasco no barco, coca e heineken gelada 🥺</t>
+  </si>
+  <si>
+    <t>tomei 2 heineken e já fiquei alterado kkkkkkk</t>
+  </si>
+  <si>
+    <t>vontade de uma heineken bem geladinha</t>
+  </si>
+  <si>
+    <t>a heineken é cara, mas me livrou de uma puta ressaca hoje</t>
+  </si>
+  <si>
+    <t>sim, eu e os meus amigos votamos todos cdu e estamos a beber heineken.</t>
+  </si>
+  <si>
+    <t>seu zé simplesmente deixou um barril de heineken na geladeira de casa, trincando. isso é um teste, deux? pq sua filha é fraca!</t>
+  </si>
+  <si>
+    <t>tomei várias heineken 0 álcool hoje com os guris, muito boa 🤤</t>
+  </si>
+  <si>
+    <t>eu dboa:😁😌🤪🤘🏽🌿                            lembrei que a heineken tá quase 8 reais:😩😭🤬😵👎🏽</t>
+  </si>
+  <si>
+    <t>raquel disse que ficou muito bebada com 5 imperio e 3 heineken kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>eu acho que tô virando alcoolatra e esse povo do evento quer ver meu fim. em uma noite eu bebo vodka, whisky, brahma, heineken, império..  pqp. pior q nem bêbado fico mais kkkk</t>
+  </si>
+  <si>
+    <t>@caduoliveeira_ acho que heineken e corona mano</t>
+  </si>
+  <si>
+    <t>quem bebe heineken é louco, serin</t>
+  </si>
+  <si>
+    <t>heineken 0800 e tao boa 🤤😂</t>
+  </si>
+  <si>
+    <t>@fzp_jessica nunk sera heineken livinha</t>
+  </si>
+  <si>
+    <t>nem só de heineken vive o homem. #cruzeiro https://t.co/hjfyuh80z5</t>
+  </si>
+  <si>
+    <t>está sendo assim meu domingo sozinha heineken + pendrive, triste mas é oq temos https://t.co/lua0mqu1w4</t>
+  </si>
+  <si>
+    <t>bebinhaa de heineken.
+só assim...</t>
+  </si>
+  <si>
+    <t>sdd daquela pessoa que com crtz chegaria na minha porta agora com uma heineken um cigarro e me levaria pra ver o pôr do sol, pena que é surtad@</t>
+  </si>
+  <si>
+    <t>descendo mt heineken com meu filhote 😌🍻</t>
+  </si>
+  <si>
+    <t>só beberia uma @heineken hoje se ela sorrir pra mim! 
+é não teve jeito, tive que beber.
+🤷‍♂️😏✌🔥⭐ https://t.co/shi8n3asvn</t>
+  </si>
+  <si>
+    <t>pelo menos tô bebendo heineken https://t.co/fichowf2ii</t>
+  </si>
+  <si>
+    <t>quando eu tinha 17/18, a heineken era 5 conto nos botecos e eu ficava bêbado mais rápido... saudades! https://t.co/cbwrtqdtlx</t>
+  </si>
+  <si>
+    <t>@nathylicka brahma tá me quebrando, faz muito tempo q não bebo ela. 
+eu tomo heineken pq o pessoal aqui de casa só toma dessa, acabei acostumando. mas a dor de cabeça é certa, não tem jeito.</t>
+  </si>
+  <si>
+    <t>quem vê as heineken que nos bebe, não vê os corre que a gente faz!
+domingou daquele jeito né 
+na lidaaaa do boooooi! 🐂〰️🐎 https://t.co/ohwmotunqx</t>
+  </si>
+  <si>
+    <t>passei uma dor de cabeça, ressaca foi braba, tomar quase um balde de cerveja sozinho, agora estou com pavor de heineken</t>
+  </si>
+  <si>
+    <t>infelizmente falando litrão nessa rede social mas ainda assim as vezes eu ia no pão de açúcar e já comprava umas latas de heineken que rendia mto mais</t>
+  </si>
+  <si>
+    <t>@lvcth_ @bl2_1895 th vai ter que pagar a heineken</t>
+  </si>
+  <si>
+    <t>desejando uma heineken bem gelada</t>
+  </si>
+  <si>
+    <t>comprei um fardinho de heineken e estou apenas aguardando meu amigo chico me chamar pra ir pro quintal dele com a mesa montada pra domingar</t>
+  </si>
+  <si>
+    <t>mas tem heineken e caipirinha de limão</t>
+  </si>
+  <si>
+    <t>vei, a heineken é a melhor cerveja... tô fé boassa</t>
+  </si>
+  <si>
+    <t>deus tá vendo a pessoa me devendo e tomando heineken</t>
+  </si>
+  <si>
+    <t>@carol1ne__ minha nossa  mal consigo tomar 3 heineken.🤨 kkkkkk</t>
+  </si>
+  <si>
+    <t>fiquei no brilho c 2 heineken, auge</t>
+  </si>
+  <si>
+    <t>trabalhei o domingo todo 😩😩😩 só queria tomar umas heineken pena que estou sem dinheiro 😭</t>
+  </si>
+  <si>
+    <t>heineken me dando a auto estima que não tinha nos últimos 6 meses</t>
+  </si>
+  <si>
+    <t>@goulartkrumheu cadê minha heineken seu demonho</t>
+  </si>
+  <si>
+    <t>balão caiu aquelas coisa!!
+descer heineken 🎈🎈</t>
+  </si>
+  <si>
+    <t>heineken e churrasquin nesse domingo lindo, vou querer mais o que fi?🥵</t>
+  </si>
+  <si>
+    <t>eu sozin mandei chover heineken hj pelo drink kk, gostoso com maravilhoso</t>
+  </si>
+  <si>
+    <t>ah pelo menos eu vi os amigos e tomei heineken com eles, se foda td</t>
+  </si>
+  <si>
+    <t>@chefdangalhardo chef.
+pra quem já comeu feijão batido com creme de maionese (bem misturados), pão francês com açúcar, gosta muito de arroz queimado e acha que a heineken desintoxica tudo, isso aí é manjar dos deuses.</t>
+  </si>
+  <si>
+    <t>toma umas heineken com as pessoas que eu gosto só faltou algumas 🥰</t>
+  </si>
+  <si>
+    <t>@spfcgabrielcore mano, beck's deixa pra trás a heineken brincando, mó delícia</t>
+  </si>
+  <si>
+    <t>tô funcionando à base de heineken</t>
+  </si>
+  <si>
+    <t>heineken, pq tão boa ?? 😍</t>
+  </si>
+  <si>
+    <t>agora são dias sem alcool para novo tratamento, eita porra, deos me denfenderay, haja heineken zero alcool</t>
+  </si>
+  <si>
+    <t>@rmmesquita eh ok, mas vamos manter a tradição (heineken)</t>
+  </si>
+  <si>
+    <t>que vontade sentar em uma mesa de bar e tomar 438 heineken</t>
+  </si>
+  <si>
+    <t>abraçadinha no fardinho de heineken q será devidamente bebido em homenagem a minha cara de 🤡</t>
+  </si>
+  <si>
+    <t>só uma heineken geladinha pra fechar o domingouu 🥺🥺</t>
+  </si>
+  <si>
+    <t>tomei um latão de heineken e to pronto hwhehwuh</t>
+  </si>
+  <si>
+    <t>hoje vim passar o dia na minha casa, estamos cortando a grama, tomando uma heineken,  solzinho gostoso e neném dormindo! a vibe tá muito gostosa...eu amo meu lar...😍</t>
+  </si>
+  <si>
+    <t>fui liberada pela nutri beber 2 cervejas heineken, porém vou deixar para o próximo fds</t>
+  </si>
+  <si>
+    <t>culpa dele, fiquei quase 2 hr esperando completar o carro, deu p pegar 7 heineken 😂😅</t>
+  </si>
+  <si>
+    <t>@brunavalentinne quando bebo, bebo pra passar vergonha aí não sei o que gosto de forte. tô comendo a provar gin e whisky quando der. heineken, e bhama puro malte única coisa que gosto beber</t>
+  </si>
+  <si>
+    <t>hoje tá a cara da heineken bem gelada.</t>
+  </si>
+  <si>
+    <t>heineken 18 conto, cm 4 eu tô bebada</t>
+  </si>
+  <si>
+    <t>comi um churrasquinho e tomei uma heineken c minha família, agora só a vitória do inter pode encerrar com chave de ouro meu dia! 🔑 🇦🇹</t>
+  </si>
+  <si>
+    <t>hoje foi so heineken, o cruzeiro é uma desgraça!!!</t>
+  </si>
+  <si>
+    <t>só umas heineken</t>
+  </si>
+  <si>
+    <t>chegar em casa vou tomar esse packzin de heineken e comer um amendoim</t>
+  </si>
+  <si>
+    <t>tá fluindo aquele engarrafamento bobo de heineken, depois cavalgada, e finalizar na casa da picanha 🥵</t>
+  </si>
+  <si>
+    <t>@marcior_silva kkkk imagina a festa kkkk picanha e heineken kkkkkk a vontade</t>
+  </si>
+  <si>
+    <t>heineken, bud, litrão de brahma, litrão de antártica e agr império..... e pedir pra morrer pprt</t>
+  </si>
+  <si>
+    <t>tendo em vista que,hj estava a cara da praia e 38 heineken,mas por força maior...infelizmente</t>
+  </si>
+  <si>
+    <t>pessoas que visitaram meu perfil e grupos que sigo no twitter https://t.co/xdup4hg04h</t>
+  </si>
+  <si>
+    <t>piscininha e heineken combinação perfeita</t>
+  </si>
+  <si>
+    <t>começou com uma heineken e terminou com um debate entre marx e o liberalismo</t>
+  </si>
+  <si>
+    <t>não tem cerveja pior q heineken.</t>
+  </si>
+  <si>
+    <t>hoje eu fiz churrasco enquanto bebia uma heineken, a carteirinha de lésbica tá em dia</t>
+  </si>
+  <si>
+    <t>quando falo com as pessoas q eu tenho alergia a todas as cervejas menos heineken ngm acredita</t>
+  </si>
+  <si>
+    <t>desci pra “jogar conversa fora” com a minha sogra e minha cunhada, desceu brahma e despoja heineken, aff</t>
+  </si>
+  <si>
+    <t>almoçando uma carninha assada tomando essa heineken trincando, nakelespique</t>
+  </si>
+  <si>
+    <t>onde q eu estou q o camelô só vende heineken</t>
+  </si>
+  <si>
+    <t>vontade de tomar uma heineken bem gelada</t>
+  </si>
+  <si>
+    <t>maritaca me mandou vídeo da peça  de picanha e heineken me chamando pra beber, quando eu falo que não vou beber... pode ter certeza que não vou kkkkk</t>
+  </si>
+  <si>
+    <t>300 gramas de salgadinhos assados, 600 ml de heineken e filme pra descansar e esperar minha tropa chegar</t>
+  </si>
+  <si>
+    <t>heineken a melhor cerveja que já existiu</t>
+  </si>
+  <si>
+    <t>nem de heineken eu gostava, agora to aqui tomando tudão  kkkkkk</t>
+  </si>
+  <si>
+    <t>hj o dia tá pedindo heineken emmmm..</t>
+  </si>
+  <si>
+    <t>desejo de mais heineken gelada</t>
+  </si>
+  <si>
+    <t>eu tava tomando devassa agr to tomando heineken</t>
+  </si>
+  <si>
+    <t>heineken é mó boa slc</t>
+  </si>
+  <si>
+    <t>heineken 0.0 de álcool, é eu não sei  q ressaca é essa kkkkk</t>
+  </si>
+  <si>
+    <t>tomei umas heineken ontem com a dona maria e o doutor maracutanga,depois paramos lá na proença...</t>
+  </si>
+  <si>
+    <t>heineken pior cerveja</t>
+  </si>
+  <si>
+    <t>@gugall1 um fardo de heineken e dou pra vocês o elenco inteiro</t>
+  </si>
+  <si>
+    <t>fazendo as contas,bebemos 10 baldes de heineken ontem</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +3100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1697,6 +3113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2035,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView topLeftCell="A724" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B750" sqref="B750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,17 +5872,3610 @@
         <v>3</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B391">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B394">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B399">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B415">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B420">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B426">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B438">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B443">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B445">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B449">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B454">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B466">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="B479">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B482">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B494">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B495">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B501">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="B507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B510">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B515">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B518">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B540">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B550">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B555">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B556">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B558">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B560">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="B561">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B563">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B570">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B571">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B573">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B577">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="B581">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B582">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B584">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B586">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="B588">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="B590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B593">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="B596">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B599">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="B601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B603">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="B605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B607">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B608">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="B610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B611">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="B612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B613">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B614">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B615">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="B616">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B618">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B619">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="B620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B622">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B623">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="B624">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B626">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="B627">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B630">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="B631">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B633">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B635">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B637">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="B638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B639">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B643">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="B644">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="B645">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="B646">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="B648">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B649">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="B650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B651">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="B652">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B655">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B656">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B657">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B658">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B659">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B664">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B665">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B666">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="B667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="B669">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="B670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B671">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="B673">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="B675">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B678" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="B679" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="B680" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B681" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B682" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B683" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B684" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B685" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B686" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="B687" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B688" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="B689" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B690" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="B691" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B692" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B693" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="B694" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B695" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="B696" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B697" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="B698" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="B699" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B700" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B701" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="B702" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="B703" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="B704" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B705" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="B706" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="B707" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="B708" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="B709" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="B710" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="B711" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="B712" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B713" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="B714" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="B715" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="B716" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B717" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="B718" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="B719" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B720" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B721" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B722" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="B723" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B724" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="B725" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B726" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="B727" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="B728" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="B729" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B730" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="B731" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B732" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B733" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="B734" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="B735" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="B736" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B737" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="B738" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B739" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B740" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="B741" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B742" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B743" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B744" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="B745" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B746" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B747" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B748" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B749" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B750" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="26" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6083,6 +11093,406 @@
         <v>4</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Heineken.xlsx
+++ b/Heineken.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiig\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40946ede84cb16e4/Documentos/C DADOS/cdados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2EFC-2ED6-4C2B-AC53-15AF9638A779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{1A1B2EFC-2ED6-4C2B-AC53-15AF9638A779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A2BF95-9B36-433D-AADE-B64C63D57DDA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="956">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3029,6 +3029,15 @@
   </si>
   <si>
     <t>fazendo as contas,bebemos 10 baldes de heineken ontem</t>
+  </si>
+  <si>
+    <t>heineken é mt ruim 🤡🤡</t>
+  </si>
+  <si>
+    <t>que vontade de tomar uma #heineken 😍😍</t>
+  </si>
+  <si>
+    <t>ta me devendo uma cerveja #heineken</t>
   </si>
 </sst>
 </file>
@@ -3452,10 +3461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B750"/>
+  <dimension ref="A1:B752"/>
   <sheetViews>
-    <sheetView topLeftCell="A724" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B750" sqref="B750"/>
+    <sheetView topLeftCell="A733" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A752" sqref="A752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9464,6 +9473,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>953</v>
+      </c>
+      <c r="B751" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>954</v>
+      </c>
+      <c r="B752" s="10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9472,10 +9497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11439,10 +11464,10 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -11491,6 +11516,14 @@
       </c>
       <c r="B251">
         <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>947</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
